--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>userName</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Blank</t>
+  </si>
+  <si>
+    <t>Blank5/22</t>
   </si>
 </sst>
 </file>
